--- a/artfynd/A 56633-2024 artfynd.xlsx
+++ b/artfynd/A 56633-2024 artfynd.xlsx
@@ -6359,7 +6359,7 @@
         <v>124138502</v>
       </c>
       <c r="B49" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
